--- a/biology/Médecine/Jacques_Amédée_Doléris/Jacques_Amédée_Doléris.xlsx
+++ b/biology/Médecine/Jacques_Amédée_Doléris/Jacques_Amédée_Doléris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Am%C3%A9d%C3%A9e_Dol%C3%A9ris</t>
+          <t>Jacques_Amédée_Doléris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Amédée Doléris était un médecin et homme politique français, né le 22 décembre 1852 à Lembeye (Pyrénées-Atlantiques) et mort le 18 janvier 1938 à Pau (Pyrénées-Atlantiques).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Am%C3%A9d%C3%A9e_Dol%C3%A9ris</t>
+          <t>Jacques_Amédée_Doléris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Doléris fut un gynécologue de renommée internationale. Il avait fait ses études à Paris, était devenu externe en 1872, interne 1874, et docteur en médecine en 1879. Il travailla avec Louis Pasteur (1822-1895) de 1878 à 1881, et entre 1883 et 1898, tint le poste de chef de service aux hôpitaux La Pitié, Boucicaut, et Saint-Antoine. Pendant la période de 1898 à 1919, une de ses fonctions comme professeur était de donner des conférences aux hôpitaux Boucicaut et Saint-Antoine.
 Comme pupille de Pasteur, Doléris se consacra principalement à l'étude de la microbiologie des infections puerpérales, des septicémies et de l'érysipèle. Plus tard il concentra ses efforts en gynécologie (opération de Doléris de retroversion-flexion). Il était membre de l'Académie de médecine et fut le fondateur des Archives d'Obstétrique et de Gynécologie et de Gynécologie.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Am%C3%A9d%C3%A9e_Dol%C3%A9ris</t>
+          <t>Jacques_Amédée_Doléris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'honneur par décret du 3 janvier 1926[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur par décret du 3 janvier 1926.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jacques_Am%C3%A9d%C3%A9e_Dol%C3%A9ris</t>
+          <t>Jacques_Amédée_Doléris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec une très légère faute d'orthographe (Doleris), le docteur Doléris est mentionné dans une citation de l'écrivain Georges Duhamel, qui illustre l'adjectif « émérite » du dictionnaire Petit Robert : 
 « J'ai suivi parfois la consultation de Doleris, accoucheur émérite... »
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jacques_Am%C3%A9d%C3%A9e_Dol%C3%A9ris</t>
+          <t>Jacques_Amédée_Doléris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De l'endométrite..., Paris, 1887.
 Du raccourcissement des ligaments ronds, Paris, 1887.
